--- a/Object Repository.xlsx
+++ b/Object Repository.xlsx
@@ -9,12 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15530" windowHeight="6930" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Dynamic" sheetId="1" r:id="rId1"/>
+    <sheet name="TravellerInfo" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="196">
   <si>
     <t>Product</t>
   </si>
@@ -128,15 +130,6 @@
     <t>Emergency medical evacuation and repatriation</t>
   </si>
   <si>
-    <t>Personal liability (Up to)</t>
-  </si>
-  <si>
-    <t>Trip cancellation or curtailment (Up to)</t>
-  </si>
-  <si>
-    <t>Medical related expenses (Up to)</t>
-  </si>
-  <si>
     <t>Accidental death or permanent disability</t>
   </si>
   <si>
@@ -474,16 +467,171 @@
   </si>
   <si>
     <t>Discount 25%</t>
+  </si>
+  <si>
+    <t>Personal liability (up to)</t>
+  </si>
+  <si>
+    <t>Trip cancellation or curtailment (up to)</t>
+  </si>
+  <si>
+    <t>Medical related expenses (up to)</t>
+  </si>
+  <si>
+    <t>flight.departureFlight</t>
+  </si>
+  <si>
+    <t>Departure Flight</t>
+  </si>
+  <si>
+    <t>flight.returnFlight</t>
+  </si>
+  <si>
+    <t>Return Flight</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>ic</t>
+  </si>
+  <si>
+    <t>ethnicity</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>mobile_number</t>
+  </si>
+  <si>
+    <t>building_name</t>
+  </si>
+  <si>
+    <t>area_name</t>
+  </si>
+  <si>
+    <t>postcode</t>
+  </si>
+  <si>
+    <t>nationality</t>
+  </si>
+  <si>
+    <t>full_name</t>
+  </si>
+  <si>
+    <t>Teoh Yee Xian</t>
+  </si>
+  <si>
+    <t>Chinese</t>
+  </si>
+  <si>
+    <t>yeexian.teoh@etiqa.com.my</t>
+  </si>
+  <si>
+    <t>01139519168</t>
+  </si>
+  <si>
+    <t>Block D-6-11 Jalan Peel Cochrane 1</t>
+  </si>
+  <si>
+    <t>Kuala Lumpur, Malaysia</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>bank_name</t>
+  </si>
+  <si>
+    <t>bank_number</t>
+  </si>
+  <si>
+    <t>Malayan Banking Berhad</t>
+  </si>
+  <si>
+    <t>MALAYSIAN</t>
+  </si>
+  <si>
+    <t>123412341234</t>
+  </si>
+  <si>
+    <t>passport</t>
+  </si>
+  <si>
+    <t>000928070605</t>
+  </si>
+  <si>
+    <t>travellerInfo.flightDelay</t>
+  </si>
+  <si>
+    <t>Enjoy automatic claim payouts for flight delays</t>
+  </si>
+  <si>
+    <t>include_flight_delay</t>
+  </si>
+  <si>
+    <t>group_second</t>
+  </si>
+  <si>
+    <t>990928070605</t>
+  </si>
+  <si>
+    <t>Lim Foo Lim</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>wrnmsg.enterDepartureFlight</t>
+  </si>
+  <si>
+    <t>Please enter your departure flight details</t>
+  </si>
+  <si>
+    <t>travellerInfo.bankName</t>
+  </si>
+  <si>
+    <t>Bank Name</t>
+  </si>
+  <si>
+    <t>child_university</t>
+  </si>
+  <si>
+    <t>child_children</t>
+  </si>
+  <si>
+    <t>Tan Ong Lim</t>
+  </si>
+  <si>
+    <t>0123411123</t>
+  </si>
+  <si>
+    <t>Mz 10 Jln Wilayah Persekutuan</t>
+  </si>
+  <si>
+    <t>Ipoh, Perak, Malaysia</t>
+  </si>
+  <si>
+    <t>is_student</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -506,13 +654,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -791,10 +943,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D74"/>
+  <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -822,7 +974,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -833,7 +985,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -844,7 +996,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -855,7 +1007,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -866,7 +1018,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -877,7 +1029,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
@@ -888,7 +1040,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -899,7 +1051,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
@@ -910,7 +1062,7 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
@@ -921,7 +1073,7 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
@@ -932,7 +1084,7 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C12" t="s">
         <v>15</v>
@@ -943,7 +1095,7 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C13" t="s">
         <v>16</v>
@@ -954,7 +1106,7 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C14" t="s">
         <v>17</v>
@@ -965,7 +1117,7 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C15" t="s">
         <v>18</v>
@@ -976,7 +1128,7 @@
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C16" t="s">
         <v>19</v>
@@ -987,7 +1139,7 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C17" t="s">
         <v>20</v>
@@ -998,7 +1150,7 @@
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C18" t="s">
         <v>21</v>
@@ -1009,7 +1161,7 @@
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C19" t="s">
         <v>22</v>
@@ -1020,7 +1172,7 @@
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C20" t="s">
         <v>23</v>
@@ -1031,7 +1183,7 @@
         <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C21" t="s">
         <v>24</v>
@@ -1042,7 +1194,7 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C22" t="s">
         <v>25</v>
@@ -1053,7 +1205,7 @@
         <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C23" t="s">
         <v>26</v>
@@ -1064,7 +1216,7 @@
         <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C24" t="s">
         <v>27</v>
@@ -1075,7 +1227,7 @@
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -1086,7 +1238,7 @@
         <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C26" t="s">
         <v>29</v>
@@ -1097,7 +1249,7 @@
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C27" t="s">
         <v>30</v>
@@ -1108,7 +1260,7 @@
         <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C28" t="s">
         <v>31</v>
@@ -1119,10 +1271,10 @@
         <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C29" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
@@ -1130,10 +1282,10 @@
         <v>4</v>
       </c>
       <c r="B30" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C30" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
@@ -1141,10 +1293,10 @@
         <v>4</v>
       </c>
       <c r="B31" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C31" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
@@ -1152,10 +1304,10 @@
         <v>4</v>
       </c>
       <c r="B32" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C32" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
@@ -1163,10 +1315,10 @@
         <v>4</v>
       </c>
       <c r="B33" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C33" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
@@ -1174,10 +1326,10 @@
         <v>4</v>
       </c>
       <c r="B34" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C34" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
@@ -1185,7 +1337,7 @@
         <v>4</v>
       </c>
       <c r="B35" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C35" t="s">
         <v>32</v>
@@ -1196,7 +1348,7 @@
         <v>4</v>
       </c>
       <c r="B36" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C36" t="s">
         <v>33</v>
@@ -1207,10 +1359,10 @@
         <v>4</v>
       </c>
       <c r="B37" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C37" t="s">
-        <v>34</v>
+        <v>147</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
@@ -1218,10 +1370,10 @@
         <v>4</v>
       </c>
       <c r="B38" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C38" t="s">
-        <v>35</v>
+        <v>148</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
@@ -1229,10 +1381,10 @@
         <v>4</v>
       </c>
       <c r="B39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C39" t="s">
-        <v>36</v>
+        <v>149</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
@@ -1240,10 +1392,10 @@
         <v>4</v>
       </c>
       <c r="B40" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C40" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
@@ -1251,10 +1403,10 @@
         <v>4</v>
       </c>
       <c r="B41" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C41" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
@@ -1262,10 +1414,10 @@
         <v>4</v>
       </c>
       <c r="B42" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C42" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
@@ -1273,10 +1425,10 @@
         <v>4</v>
       </c>
       <c r="B43" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C43" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
@@ -1284,10 +1436,10 @@
         <v>4</v>
       </c>
       <c r="B44" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C44" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
@@ -1295,10 +1447,10 @@
         <v>4</v>
       </c>
       <c r="B45" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C45" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
@@ -1306,10 +1458,10 @@
         <v>4</v>
       </c>
       <c r="B46" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C46" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
@@ -1317,10 +1469,10 @@
         <v>4</v>
       </c>
       <c r="B47" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C47" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
@@ -1328,10 +1480,10 @@
         <v>4</v>
       </c>
       <c r="B48" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C48" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
@@ -1339,10 +1491,10 @@
         <v>4</v>
       </c>
       <c r="B49" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C49" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
@@ -1350,10 +1502,10 @@
         <v>4</v>
       </c>
       <c r="B50" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C50" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
@@ -1361,10 +1513,10 @@
         <v>4</v>
       </c>
       <c r="B51" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C51" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
@@ -1372,10 +1524,10 @@
         <v>4</v>
       </c>
       <c r="B52" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C52" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
@@ -1383,10 +1535,10 @@
         <v>4</v>
       </c>
       <c r="B53" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C53" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
@@ -1394,10 +1546,10 @@
         <v>4</v>
       </c>
       <c r="B54" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C54" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
@@ -1405,10 +1557,10 @@
         <v>4</v>
       </c>
       <c r="B55" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C55" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
@@ -1416,10 +1568,10 @@
         <v>4</v>
       </c>
       <c r="B56" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C56" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
@@ -1427,10 +1579,10 @@
         <v>4</v>
       </c>
       <c r="B57" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C57" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
@@ -1438,10 +1590,10 @@
         <v>4</v>
       </c>
       <c r="B58" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C58" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
@@ -1449,10 +1601,10 @@
         <v>4</v>
       </c>
       <c r="B59" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C59" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
@@ -1460,10 +1612,10 @@
         <v>4</v>
       </c>
       <c r="B60" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C60" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
@@ -1471,10 +1623,10 @@
         <v>4</v>
       </c>
       <c r="B61" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C61" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
@@ -1482,10 +1634,10 @@
         <v>4</v>
       </c>
       <c r="B62" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C62" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
@@ -1493,10 +1645,10 @@
         <v>4</v>
       </c>
       <c r="B63" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C63" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
@@ -1504,10 +1656,10 @@
         <v>4</v>
       </c>
       <c r="B64" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C64" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
@@ -1515,10 +1667,10 @@
         <v>4</v>
       </c>
       <c r="B65" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C65" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
@@ -1526,10 +1678,10 @@
         <v>4</v>
       </c>
       <c r="B66" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C66" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
@@ -1537,10 +1689,10 @@
         <v>4</v>
       </c>
       <c r="B67" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C67" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
@@ -1548,10 +1700,10 @@
         <v>4</v>
       </c>
       <c r="B68" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C68" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
@@ -1559,10 +1711,10 @@
         <v>4</v>
       </c>
       <c r="B69" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C69" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
@@ -1570,10 +1722,10 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
+        <v>133</v>
+      </c>
+      <c r="C70" t="s">
         <v>136</v>
-      </c>
-      <c r="C70" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
@@ -1581,7 +1733,7 @@
         <v>4</v>
       </c>
       <c r="B71" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C71" t="s">
         <v>0</v>
@@ -1592,10 +1744,10 @@
         <v>4</v>
       </c>
       <c r="B72" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C72" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
@@ -1603,10 +1755,10 @@
         <v>4</v>
       </c>
       <c r="B73" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C73" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
@@ -1614,14 +1766,274 @@
         <v>4</v>
       </c>
       <c r="B74" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C74" t="s">
-        <v>149</v>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>4</v>
+      </c>
+      <c r="B75" t="s">
+        <v>150</v>
+      </c>
+      <c r="C75" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>4</v>
+      </c>
+      <c r="B76" t="s">
+        <v>152</v>
+      </c>
+      <c r="C76" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>4</v>
+      </c>
+      <c r="B77" t="s">
+        <v>178</v>
+      </c>
+      <c r="C77" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>4</v>
+      </c>
+      <c r="B78" t="s">
+        <v>185</v>
+      </c>
+      <c r="C78" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>4</v>
+      </c>
+      <c r="B79" t="s">
+        <v>187</v>
+      </c>
+      <c r="C79" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="23.453125" customWidth="1"/>
+    <col min="2" max="3" width="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D2" s="1">
+        <v>50602011010</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>158</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>159</v>
+      </c>
+      <c r="B8" t="s">
+        <v>168</v>
+      </c>
+      <c r="D8" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B9" t="s">
+        <v>169</v>
+      </c>
+      <c r="D9" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>161</v>
+      </c>
+      <c r="B10" s="1">
+        <v>11500</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1">
+        <v>51200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>162</v>
+      </c>
+      <c r="B11" t="s">
+        <v>174</v>
+      </c>
+      <c r="C11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>171</v>
+      </c>
+      <c r="B12" t="s">
+        <v>173</v>
+      </c>
+      <c r="C12" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>172</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>180</v>
+      </c>
+      <c r="C14" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>195</v>
+      </c>
+      <c r="D15" t="s">
+        <v>184</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1"/>
+    <hyperlink ref="C6" r:id="rId2"/>
+    <hyperlink ref="D6" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
+</worksheet>
 </file>
--- a/Object Repository.xlsx
+++ b/Object Repository.xlsx
@@ -9,14 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15530" windowHeight="6930" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15530" windowHeight="6930"/>
   </bookViews>
   <sheets>
     <sheet name="Dynamic" sheetId="1" r:id="rId1"/>
     <sheet name="TravellerInfo" sheetId="2" r:id="rId2"/>
+    <sheet name="OTO360" sheetId="3" r:id="rId3"/>
+    <sheet name="BankInfo" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="290">
   <si>
     <t>Product</t>
   </si>
@@ -614,6 +615,288 @@
   </si>
   <si>
     <t>is_student</t>
+  </si>
+  <si>
+    <t>OTO360</t>
+  </si>
+  <si>
+    <t>quotation.IDType</t>
+  </si>
+  <si>
+    <t>ID Type</t>
+  </si>
+  <si>
+    <t>MYKAD</t>
+  </si>
+  <si>
+    <t>PASSPORT</t>
+  </si>
+  <si>
+    <t>ARMY</t>
+  </si>
+  <si>
+    <t>POLICE</t>
+  </si>
+  <si>
+    <t>quotationType.police</t>
+  </si>
+  <si>
+    <t>quotationType.army</t>
+  </si>
+  <si>
+    <t>quotationType.passport</t>
+  </si>
+  <si>
+    <t>quotationType.mykad</t>
+  </si>
+  <si>
+    <t>quotationType.local</t>
+  </si>
+  <si>
+    <t>quotationType.international</t>
+  </si>
+  <si>
+    <t>SINGAPOREAN</t>
+  </si>
+  <si>
+    <t>Continue</t>
+  </si>
+  <si>
+    <t>Proceed</t>
+  </si>
+  <si>
+    <t>Discount 10%</t>
+  </si>
+  <si>
+    <t>Vehicle Number</t>
+  </si>
+  <si>
+    <t>Vehicle Brand</t>
+  </si>
+  <si>
+    <t>Vehicle Model</t>
+  </si>
+  <si>
+    <t>Vehicle Year</t>
+  </si>
+  <si>
+    <t>Vehicle Variant</t>
+  </si>
+  <si>
+    <t>Chasiss Number</t>
+  </si>
+  <si>
+    <t>detail.vehicleNumber</t>
+  </si>
+  <si>
+    <t>detail.vehicleBrand</t>
+  </si>
+  <si>
+    <t>detail.vehicleModel</t>
+  </si>
+  <si>
+    <t>detail.vehicleYear</t>
+  </si>
+  <si>
+    <t>detail.vehicleVariant</t>
+  </si>
+  <si>
+    <t>detail.chasissNumber</t>
+  </si>
+  <si>
+    <t>Race</t>
+  </si>
+  <si>
+    <t>Bank name</t>
+  </si>
+  <si>
+    <t>MALE</t>
+  </si>
+  <si>
+    <t>FEMALE</t>
+  </si>
+  <si>
+    <t>CHINESE</t>
+  </si>
+  <si>
+    <t>detail.IDType</t>
+  </si>
+  <si>
+    <t>detail.nationality</t>
+  </si>
+  <si>
+    <t>detail.race</t>
+  </si>
+  <si>
+    <t>detail.gender</t>
+  </si>
+  <si>
+    <t>detail.male</t>
+  </si>
+  <si>
+    <t>detail.female</t>
+  </si>
+  <si>
+    <t>detail.chinese</t>
+  </si>
+  <si>
+    <t>detail.bankName</t>
+  </si>
+  <si>
+    <t>submit.toApplication</t>
+  </si>
+  <si>
+    <t>submit.toPlan</t>
+  </si>
+  <si>
+    <t>submit.toReview</t>
+  </si>
+  <si>
+    <t>submit.toPayment</t>
+  </si>
+  <si>
+    <t>Proceed to pay</t>
+  </si>
+  <si>
+    <t>Set1</t>
+  </si>
+  <si>
+    <t>vehicleNumber</t>
+  </si>
+  <si>
+    <t>passportNo</t>
+  </si>
+  <si>
+    <t>dateOfBirth</t>
+  </si>
+  <si>
+    <t>emailForRenewal</t>
+  </si>
+  <si>
+    <t>promotionSelection</t>
+  </si>
+  <si>
+    <t>planClass</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>race</t>
+  </si>
+  <si>
+    <t>mobileNumber</t>
+  </si>
+  <si>
+    <t>address1</t>
+  </si>
+  <si>
+    <t>address2</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>bankName</t>
+  </si>
+  <si>
+    <t>savingAccount</t>
+  </si>
+  <si>
+    <t>userId</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>Lee Ong Lim</t>
+  </si>
+  <si>
+    <t>VOA0005</t>
+  </si>
+  <si>
+    <t>A12345678</t>
+  </si>
+  <si>
+    <t>RF/123456</t>
+  </si>
+  <si>
+    <t>N/123456</t>
+  </si>
+  <si>
+    <t>armyIdNo</t>
+  </si>
+  <si>
+    <t>policeIdNo</t>
+  </si>
+  <si>
+    <t>idType</t>
+  </si>
+  <si>
+    <t>text.quotationForm</t>
+  </si>
+  <si>
+    <t>Enhance Your Motor Coverage Now</t>
+  </si>
+  <si>
+    <t>submit.quotationCheck</t>
+  </si>
+  <si>
+    <t>Apply Now</t>
+  </si>
+  <si>
+    <t>quotation.nationality</t>
+  </si>
+  <si>
+    <t>Your current coverage is still active</t>
+  </si>
+  <si>
+    <t>Please fill in your vehicle details</t>
+  </si>
+  <si>
+    <t>text.vehicleNotEligible</t>
+  </si>
+  <si>
+    <t>text.vehicleEligible</t>
+  </si>
+  <si>
+    <t>submit.sendEmailRenewal</t>
+  </si>
+  <si>
+    <t>Remind me</t>
+  </si>
+  <si>
+    <t>Thank you, we have received your request!</t>
+  </si>
+  <si>
+    <t>text.receivedRequest</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>currentSite.review</t>
+  </si>
+  <si>
+    <t>Fill Up Details</t>
+  </si>
+  <si>
+    <t>Summary &amp; Payment</t>
+  </si>
+  <si>
+    <t>Please choose the payment option below</t>
+  </si>
+  <si>
+    <t>Please enter your 12-digit NRIC number, e.g., 771111101233</t>
+  </si>
+  <si>
+    <t>wrnmsg.ic</t>
+  </si>
+  <si>
+    <t>detail.ic</t>
+  </si>
+  <si>
+    <t>NRIC no.</t>
   </si>
 </sst>
 </file>
@@ -943,10 +1226,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D79"/>
+  <dimension ref="A1:D119"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E109" sqref="E109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1827,6 +2110,446 @@
         <v>188</v>
       </c>
     </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>196</v>
+      </c>
+      <c r="B80" t="s">
+        <v>197</v>
+      </c>
+      <c r="C80" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>196</v>
+      </c>
+      <c r="B81" t="s">
+        <v>206</v>
+      </c>
+      <c r="C81" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>205</v>
+      </c>
+      <c r="C82" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>196</v>
+      </c>
+      <c r="B83" t="s">
+        <v>204</v>
+      </c>
+      <c r="C83" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>196</v>
+      </c>
+      <c r="B84" t="s">
+        <v>203</v>
+      </c>
+      <c r="C84" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>196</v>
+      </c>
+      <c r="B85" t="s">
+        <v>272</v>
+      </c>
+      <c r="C85" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>196</v>
+      </c>
+      <c r="B86" t="s">
+        <v>207</v>
+      </c>
+      <c r="C86" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>196</v>
+      </c>
+      <c r="B87" t="s">
+        <v>208</v>
+      </c>
+      <c r="C87" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>196</v>
+      </c>
+      <c r="B88" t="s">
+        <v>239</v>
+      </c>
+      <c r="C88" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>196</v>
+      </c>
+      <c r="B89" t="s">
+        <v>238</v>
+      </c>
+      <c r="C89" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>196</v>
+      </c>
+      <c r="B90" t="s">
+        <v>145</v>
+      </c>
+      <c r="C90" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>196</v>
+      </c>
+      <c r="B91" t="s">
+        <v>219</v>
+      </c>
+      <c r="C91" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>196</v>
+      </c>
+      <c r="B92" t="s">
+        <v>220</v>
+      </c>
+      <c r="C92" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>196</v>
+      </c>
+      <c r="B93" t="s">
+        <v>221</v>
+      </c>
+      <c r="C93" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>196</v>
+      </c>
+      <c r="B94" t="s">
+        <v>222</v>
+      </c>
+      <c r="C94" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>196</v>
+      </c>
+      <c r="B95" t="s">
+        <v>223</v>
+      </c>
+      <c r="C95" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>196</v>
+      </c>
+      <c r="B96" t="s">
+        <v>224</v>
+      </c>
+      <c r="C96" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>196</v>
+      </c>
+      <c r="B97" t="s">
+        <v>230</v>
+      </c>
+      <c r="C97" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>196</v>
+      </c>
+      <c r="B98" t="s">
+        <v>231</v>
+      </c>
+      <c r="C98" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>196</v>
+      </c>
+      <c r="B99" t="s">
+        <v>232</v>
+      </c>
+      <c r="C99" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>196</v>
+      </c>
+      <c r="B100" t="s">
+        <v>233</v>
+      </c>
+      <c r="C100" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>196</v>
+      </c>
+      <c r="B101" t="s">
+        <v>237</v>
+      </c>
+      <c r="C101" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>196</v>
+      </c>
+      <c r="B102" t="s">
+        <v>234</v>
+      </c>
+      <c r="C102" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>196</v>
+      </c>
+      <c r="B103" t="s">
+        <v>235</v>
+      </c>
+      <c r="C103" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>196</v>
+      </c>
+      <c r="B104" t="s">
+        <v>236</v>
+      </c>
+      <c r="C104" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>196</v>
+      </c>
+      <c r="B105" t="s">
+        <v>240</v>
+      </c>
+      <c r="C105" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>196</v>
+      </c>
+      <c r="B106" t="s">
+        <v>241</v>
+      </c>
+      <c r="C106" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>196</v>
+      </c>
+      <c r="B107" t="s">
+        <v>268</v>
+      </c>
+      <c r="C107" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>196</v>
+      </c>
+      <c r="B108" t="s">
+        <v>270</v>
+      </c>
+      <c r="C108" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>196</v>
+      </c>
+      <c r="B109" t="s">
+        <v>275</v>
+      </c>
+      <c r="C109" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>196</v>
+      </c>
+      <c r="B110" t="s">
+        <v>276</v>
+      </c>
+      <c r="C110" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>196</v>
+      </c>
+      <c r="B111" t="s">
+        <v>277</v>
+      </c>
+      <c r="C111" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>196</v>
+      </c>
+      <c r="B112" t="s">
+        <v>280</v>
+      </c>
+      <c r="C112" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>196</v>
+      </c>
+      <c r="B113" t="s">
+        <v>66</v>
+      </c>
+      <c r="C113" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>196</v>
+      </c>
+      <c r="B114" t="s">
+        <v>67</v>
+      </c>
+      <c r="C114" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>196</v>
+      </c>
+      <c r="B115" t="s">
+        <v>282</v>
+      </c>
+      <c r="C115" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>196</v>
+      </c>
+      <c r="B116" t="s">
+        <v>140</v>
+      </c>
+      <c r="C116" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>196</v>
+      </c>
+      <c r="B117" t="s">
+        <v>142</v>
+      </c>
+      <c r="C117" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>196</v>
+      </c>
+      <c r="B118" t="s">
+        <v>287</v>
+      </c>
+      <c r="C118" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>196</v>
+      </c>
+      <c r="B119" t="s">
+        <v>288</v>
+      </c>
+      <c r="C119" t="s">
+        <v>289</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1837,8 +2560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2036,4 +2759,245 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B4" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>245</v>
+      </c>
+      <c r="B5" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>246</v>
+      </c>
+      <c r="B6">
+        <v>28092000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>162</v>
+      </c>
+      <c r="B7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>265</v>
+      </c>
+      <c r="B8" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>266</v>
+      </c>
+      <c r="B9" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>247</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>249</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>250</v>
+      </c>
+      <c r="B13" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>251</v>
+      </c>
+      <c r="B14" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>281</v>
+      </c>
+      <c r="B15" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>252</v>
+      </c>
+      <c r="B16">
+        <v>1139519168</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>157</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>253</v>
+      </c>
+      <c r="B18" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>254</v>
+      </c>
+      <c r="B19" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>161</v>
+      </c>
+      <c r="B21" s="1">
+        <v>11500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>256</v>
+      </c>
+      <c r="B22" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>257</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B17" r:id="rId1"/>
+    <hyperlink ref="B10" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B2">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>259</v>
+      </c>
+      <c r="B3">
+        <v>1111</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Object Repository.xlsx
+++ b/Object Repository.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15530" windowHeight="6930"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="15530" windowHeight="6930" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Dynamic" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="316">
   <si>
     <t>Product</t>
   </si>
@@ -897,6 +897,84 @@
   </si>
   <si>
     <t>NRIC no.</t>
+  </si>
+  <si>
+    <t>Please enter your Vehicle Number</t>
+  </si>
+  <si>
+    <t>wrnmsg.vehicleNumber</t>
+  </si>
+  <si>
+    <t>detail.quotationVehicleNumber</t>
+  </si>
+  <si>
+    <t>detail.quotationPassport</t>
+  </si>
+  <si>
+    <t>Passport no.</t>
+  </si>
+  <si>
+    <t>Date of Birth (DD/MM/YYYY)</t>
+  </si>
+  <si>
+    <t>detail.quotationDateOfBirth</t>
+  </si>
+  <si>
+    <t>ID No.</t>
+  </si>
+  <si>
+    <t>detail.quotationID</t>
+  </si>
+  <si>
+    <t>detail.quotationEmail</t>
+  </si>
+  <si>
+    <t>detail.name</t>
+  </si>
+  <si>
+    <t>Name (as per NRIC)</t>
+  </si>
+  <si>
+    <t>detail.dateOfBirth</t>
+  </si>
+  <si>
+    <t>detail.mobileNumber</t>
+  </si>
+  <si>
+    <t>Address 1</t>
+  </si>
+  <si>
+    <t>detail.address1</t>
+  </si>
+  <si>
+    <t>detail.address2</t>
+  </si>
+  <si>
+    <t>Address 2</t>
+  </si>
+  <si>
+    <t>City (Optional)</t>
+  </si>
+  <si>
+    <t>detail.city</t>
+  </si>
+  <si>
+    <t>detail.postcode</t>
+  </si>
+  <si>
+    <t>detail.state</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Current / Saving Account no.</t>
+  </si>
+  <si>
+    <t>detail.savingAccount</t>
+  </si>
+  <si>
+    <t>detail.country</t>
   </si>
 </sst>
 </file>
@@ -1226,10 +1304,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D119"/>
+  <dimension ref="A1:D135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E109" sqref="E109"/>
+    <sheetView topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2550,6 +2628,182 @@
         <v>289</v>
       </c>
     </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>196</v>
+      </c>
+      <c r="B120" t="s">
+        <v>291</v>
+      </c>
+      <c r="C120" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>196</v>
+      </c>
+      <c r="B121" t="s">
+        <v>292</v>
+      </c>
+      <c r="C121" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>196</v>
+      </c>
+      <c r="B122" t="s">
+        <v>293</v>
+      </c>
+      <c r="C122" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>196</v>
+      </c>
+      <c r="B123" t="s">
+        <v>296</v>
+      </c>
+      <c r="C123" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>196</v>
+      </c>
+      <c r="B124" t="s">
+        <v>298</v>
+      </c>
+      <c r="C124" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>196</v>
+      </c>
+      <c r="B125" t="s">
+        <v>299</v>
+      </c>
+      <c r="C125" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>196</v>
+      </c>
+      <c r="B126" t="s">
+        <v>300</v>
+      </c>
+      <c r="C126" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>196</v>
+      </c>
+      <c r="B127" t="s">
+        <v>302</v>
+      </c>
+      <c r="C127" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>196</v>
+      </c>
+      <c r="B128" t="s">
+        <v>303</v>
+      </c>
+      <c r="C128" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>196</v>
+      </c>
+      <c r="B129" t="s">
+        <v>305</v>
+      </c>
+      <c r="C129" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>196</v>
+      </c>
+      <c r="B130" t="s">
+        <v>306</v>
+      </c>
+      <c r="C130" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>196</v>
+      </c>
+      <c r="B131" t="s">
+        <v>309</v>
+      </c>
+      <c r="C131" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>196</v>
+      </c>
+      <c r="B132" t="s">
+        <v>310</v>
+      </c>
+      <c r="C132" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>196</v>
+      </c>
+      <c r="B133" t="s">
+        <v>311</v>
+      </c>
+      <c r="C133" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>196</v>
+      </c>
+      <c r="B134" t="s">
+        <v>315</v>
+      </c>
+      <c r="C134" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>196</v>
+      </c>
+      <c r="B135" t="s">
+        <v>314</v>
+      </c>
+      <c r="C135" t="s">
+        <v>313</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2561,7 +2815,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2765,8 +3019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Object Repository.xlsx
+++ b/Object Repository.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="15530" windowHeight="6930" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15530" windowHeight="6930"/>
   </bookViews>
   <sheets>
     <sheet name="Dynamic" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="317">
   <si>
     <t>Product</t>
   </si>
@@ -975,6 +975,9 @@
   </si>
   <si>
     <t>detail.country</t>
+  </si>
+  <si>
+    <t>Mobile number</t>
   </si>
 </sst>
 </file>
@@ -1306,8 +1309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D135"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B86" sqref="B86"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G114" sqref="G114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2724,7 +2727,7 @@
         <v>303</v>
       </c>
       <c r="C128" t="s">
-        <v>54</v>
+        <v>316</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.35">
@@ -3019,7 +3022,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>

--- a/Object Repository.xlsx
+++ b/Object Repository.xlsx
@@ -15,7 +15,8 @@
     <sheet name="Dynamic" sheetId="1" r:id="rId1"/>
     <sheet name="TravellerInfo" sheetId="2" r:id="rId2"/>
     <sheet name="OTO360" sheetId="3" r:id="rId3"/>
-    <sheet name="BankInfo" sheetId="4" r:id="rId4"/>
+    <sheet name="MyRumah" sheetId="5" r:id="rId4"/>
+    <sheet name="BankInfo" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="336">
   <si>
     <t>Product</t>
   </si>
@@ -761,63 +762,264 @@
     <t>Set1</t>
   </si>
   <si>
+    <t>passportNo</t>
+  </si>
+  <si>
+    <t>dateOfBirth</t>
+  </si>
+  <si>
+    <t>emailForRenewal</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>race</t>
+  </si>
+  <si>
+    <t>mobileNumber</t>
+  </si>
+  <si>
+    <t>address1</t>
+  </si>
+  <si>
+    <t>address2</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>bankName</t>
+  </si>
+  <si>
+    <t>savingAccount</t>
+  </si>
+  <si>
+    <t>userId</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>Lee Ong Lim</t>
+  </si>
+  <si>
+    <t>A12345678</t>
+  </si>
+  <si>
+    <t>text.quotationForm</t>
+  </si>
+  <si>
+    <t>Enhance Your Motor Coverage Now</t>
+  </si>
+  <si>
+    <t>submit.quotationCheck</t>
+  </si>
+  <si>
+    <t>Apply Now</t>
+  </si>
+  <si>
+    <t>quotation.nationality</t>
+  </si>
+  <si>
+    <t>Your current coverage is still active</t>
+  </si>
+  <si>
+    <t>Please fill in your vehicle details</t>
+  </si>
+  <si>
+    <t>text.vehicleNotEligible</t>
+  </si>
+  <si>
+    <t>text.vehicleEligible</t>
+  </si>
+  <si>
+    <t>submit.sendEmailRenewal</t>
+  </si>
+  <si>
+    <t>Remind me</t>
+  </si>
+  <si>
+    <t>Thank you, we have received your request!</t>
+  </si>
+  <si>
+    <t>text.receivedRequest</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>currentSite.review</t>
+  </si>
+  <si>
+    <t>Fill Up Details</t>
+  </si>
+  <si>
+    <t>Summary &amp; Payment</t>
+  </si>
+  <si>
+    <t>Please choose the payment option below</t>
+  </si>
+  <si>
+    <t>Please enter your 12-digit NRIC number, e.g., 771111101233</t>
+  </si>
+  <si>
+    <t>wrnmsg.ic</t>
+  </si>
+  <si>
+    <t>detail.ic</t>
+  </si>
+  <si>
+    <t>NRIC no.</t>
+  </si>
+  <si>
+    <t>Please enter your Vehicle Number</t>
+  </si>
+  <si>
+    <t>wrnmsg.vehicleNumber</t>
+  </si>
+  <si>
+    <t>detail.quotationVehicleNumber</t>
+  </si>
+  <si>
+    <t>detail.quotationPassport</t>
+  </si>
+  <si>
+    <t>Passport no.</t>
+  </si>
+  <si>
+    <t>Date of Birth (DD/MM/YYYY)</t>
+  </si>
+  <si>
+    <t>detail.quotationDateOfBirth</t>
+  </si>
+  <si>
+    <t>ID No.</t>
+  </si>
+  <si>
+    <t>detail.quotationID</t>
+  </si>
+  <si>
+    <t>detail.quotationEmail</t>
+  </si>
+  <si>
+    <t>detail.name</t>
+  </si>
+  <si>
+    <t>Name (as per NRIC)</t>
+  </si>
+  <si>
+    <t>detail.dateOfBirth</t>
+  </si>
+  <si>
+    <t>detail.mobileNumber</t>
+  </si>
+  <si>
+    <t>Address 1</t>
+  </si>
+  <si>
+    <t>detail.address1</t>
+  </si>
+  <si>
+    <t>detail.address2</t>
+  </si>
+  <si>
+    <t>Address 2</t>
+  </si>
+  <si>
+    <t>City (Optional)</t>
+  </si>
+  <si>
+    <t>detail.city</t>
+  </si>
+  <si>
+    <t>detail.postcode</t>
+  </si>
+  <si>
+    <t>detail.state</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Current / Saving Account no.</t>
+  </si>
+  <si>
+    <t>detail.savingAccount</t>
+  </si>
+  <si>
+    <t>detail.country</t>
+  </si>
+  <si>
+    <t>Mobile number</t>
+  </si>
+  <si>
+    <t>MyRumah</t>
+  </si>
+  <si>
+    <t>submit.checkFlood</t>
+  </si>
+  <si>
+    <t>Check now</t>
+  </si>
+  <si>
+    <t>submit.viewProduct</t>
+  </si>
+  <si>
+    <t>View full product details</t>
+  </si>
+  <si>
+    <t>text.isFlooding</t>
+  </si>
+  <si>
+    <t>text.isUnoccupied</t>
+  </si>
+  <si>
+    <t>text.isSuffered</t>
+  </si>
+  <si>
+    <t>text.isRegistered</t>
+  </si>
+  <si>
+    <t>Is your property currently experiencing flooding?</t>
+  </si>
+  <si>
+    <t>Will this property be unoccupied for 90 days or more?</t>
+  </si>
+  <si>
+    <t>Have you suffered any loss or damage on this property in the past two years?</t>
+  </si>
+  <si>
+    <t>Is the property registered under your name as the house owner?</t>
+  </si>
+  <si>
+    <t>quotation.yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>quotation.no</t>
+  </si>
+  <si>
+    <t>51200</t>
+  </si>
+  <si>
+    <t>Key in your postcode to check for flood risk.</t>
+  </si>
+  <si>
+    <t>text.postcode</t>
+  </si>
+  <si>
     <t>vehicleNumber</t>
   </si>
   <si>
-    <t>passportNo</t>
-  </si>
-  <si>
-    <t>dateOfBirth</t>
-  </si>
-  <si>
-    <t>emailForRenewal</t>
-  </si>
-  <si>
     <t>promotionSelection</t>
   </si>
   <si>
     <t>planClass</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>race</t>
-  </si>
-  <si>
-    <t>mobileNumber</t>
-  </si>
-  <si>
-    <t>address1</t>
-  </si>
-  <si>
-    <t>address2</t>
-  </si>
-  <si>
-    <t>city</t>
-  </si>
-  <si>
-    <t>bankName</t>
-  </si>
-  <si>
-    <t>savingAccount</t>
-  </si>
-  <si>
-    <t>userId</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>Lee Ong Lim</t>
-  </si>
-  <si>
-    <t>VOA0005</t>
-  </si>
-  <si>
-    <t>A12345678</t>
-  </si>
-  <si>
     <t>RF/123456</t>
   </si>
   <si>
@@ -833,151 +1035,7 @@
     <t>idType</t>
   </si>
   <si>
-    <t>text.quotationForm</t>
-  </si>
-  <si>
-    <t>Enhance Your Motor Coverage Now</t>
-  </si>
-  <si>
-    <t>submit.quotationCheck</t>
-  </si>
-  <si>
-    <t>Apply Now</t>
-  </si>
-  <si>
-    <t>quotation.nationality</t>
-  </si>
-  <si>
-    <t>Your current coverage is still active</t>
-  </si>
-  <si>
-    <t>Please fill in your vehicle details</t>
-  </si>
-  <si>
-    <t>text.vehicleNotEligible</t>
-  </si>
-  <si>
-    <t>text.vehicleEligible</t>
-  </si>
-  <si>
-    <t>submit.sendEmailRenewal</t>
-  </si>
-  <si>
-    <t>Remind me</t>
-  </si>
-  <si>
-    <t>Thank you, we have received your request!</t>
-  </si>
-  <si>
-    <t>text.receivedRequest</t>
-  </si>
-  <si>
-    <t>gender</t>
-  </si>
-  <si>
-    <t>currentSite.review</t>
-  </si>
-  <si>
-    <t>Fill Up Details</t>
-  </si>
-  <si>
-    <t>Summary &amp; Payment</t>
-  </si>
-  <si>
-    <t>Please choose the payment option below</t>
-  </si>
-  <si>
-    <t>Please enter your 12-digit NRIC number, e.g., 771111101233</t>
-  </si>
-  <si>
-    <t>wrnmsg.ic</t>
-  </si>
-  <si>
-    <t>detail.ic</t>
-  </si>
-  <si>
-    <t>NRIC no.</t>
-  </si>
-  <si>
-    <t>Please enter your Vehicle Number</t>
-  </si>
-  <si>
-    <t>wrnmsg.vehicleNumber</t>
-  </si>
-  <si>
-    <t>detail.quotationVehicleNumber</t>
-  </si>
-  <si>
-    <t>detail.quotationPassport</t>
-  </si>
-  <si>
-    <t>Passport no.</t>
-  </si>
-  <si>
-    <t>Date of Birth (DD/MM/YYYY)</t>
-  </si>
-  <si>
-    <t>detail.quotationDateOfBirth</t>
-  </si>
-  <si>
-    <t>ID No.</t>
-  </si>
-  <si>
-    <t>detail.quotationID</t>
-  </si>
-  <si>
-    <t>detail.quotationEmail</t>
-  </si>
-  <si>
-    <t>detail.name</t>
-  </si>
-  <si>
-    <t>Name (as per NRIC)</t>
-  </si>
-  <si>
-    <t>detail.dateOfBirth</t>
-  </si>
-  <si>
-    <t>detail.mobileNumber</t>
-  </si>
-  <si>
-    <t>Address 1</t>
-  </si>
-  <si>
-    <t>detail.address1</t>
-  </si>
-  <si>
-    <t>detail.address2</t>
-  </si>
-  <si>
-    <t>Address 2</t>
-  </si>
-  <si>
-    <t>City (Optional)</t>
-  </si>
-  <si>
-    <t>detail.city</t>
-  </si>
-  <si>
-    <t>detail.postcode</t>
-  </si>
-  <si>
-    <t>detail.state</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>Current / Saving Account no.</t>
-  </si>
-  <si>
-    <t>detail.savingAccount</t>
-  </si>
-  <si>
-    <t>detail.country</t>
-  </si>
-  <si>
-    <t>Mobile number</t>
+    <t>VOA0015</t>
   </si>
 </sst>
 </file>
@@ -1307,14 +1365,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D135"/>
+  <dimension ref="A1:D146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G114" sqref="G114"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C153" sqref="C153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="9.7265625" customWidth="1"/>
     <col min="2" max="2" width="30.6328125" customWidth="1"/>
     <col min="3" max="3" width="104.81640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -2251,7 +2310,7 @@
         <v>196</v>
       </c>
       <c r="B85" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="C85" t="s">
         <v>47</v>
@@ -2493,10 +2552,10 @@
         <v>196</v>
       </c>
       <c r="B107" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="C107" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.35">
@@ -2504,10 +2563,10 @@
         <v>196</v>
       </c>
       <c r="B108" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="C108" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.35">
@@ -2515,10 +2574,10 @@
         <v>196</v>
       </c>
       <c r="B109" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="C109" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.35">
@@ -2526,10 +2585,10 @@
         <v>196</v>
       </c>
       <c r="B110" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C110" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.35">
@@ -2537,10 +2596,10 @@
         <v>196</v>
       </c>
       <c r="B111" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C111" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.35">
@@ -2548,10 +2607,10 @@
         <v>196</v>
       </c>
       <c r="B112" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="C112" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.35">
@@ -2573,7 +2632,7 @@
         <v>67</v>
       </c>
       <c r="C114" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.35">
@@ -2581,10 +2640,10 @@
         <v>196</v>
       </c>
       <c r="B115" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="C115" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.35">
@@ -2606,7 +2665,7 @@
         <v>142</v>
       </c>
       <c r="C117" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.35">
@@ -2614,10 +2673,10 @@
         <v>196</v>
       </c>
       <c r="B118" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="C118" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.35">
@@ -2625,10 +2684,10 @@
         <v>196</v>
       </c>
       <c r="B119" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="C119" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.35">
@@ -2636,10 +2695,10 @@
         <v>196</v>
       </c>
       <c r="B120" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="C120" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.35">
@@ -2647,7 +2706,7 @@
         <v>196</v>
       </c>
       <c r="B121" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="C121" t="s">
         <v>213</v>
@@ -2658,10 +2717,10 @@
         <v>196</v>
       </c>
       <c r="B122" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="C122" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.35">
@@ -2669,10 +2728,10 @@
         <v>196</v>
       </c>
       <c r="B123" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="C123" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.35">
@@ -2680,10 +2739,10 @@
         <v>196</v>
       </c>
       <c r="B124" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="C124" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.35">
@@ -2691,7 +2750,7 @@
         <v>196</v>
       </c>
       <c r="B125" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="C125" t="s">
         <v>53</v>
@@ -2702,10 +2761,10 @@
         <v>196</v>
       </c>
       <c r="B126" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="C126" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.35">
@@ -2713,10 +2772,10 @@
         <v>196</v>
       </c>
       <c r="B127" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="C127" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.35">
@@ -2724,10 +2783,10 @@
         <v>196</v>
       </c>
       <c r="B128" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="C128" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.35">
@@ -2735,10 +2794,10 @@
         <v>196</v>
       </c>
       <c r="B129" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="C129" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.35">
@@ -2746,10 +2805,10 @@
         <v>196</v>
       </c>
       <c r="B130" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="C130" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.35">
@@ -2757,10 +2816,10 @@
         <v>196</v>
       </c>
       <c r="B131" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="C131" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.35">
@@ -2768,7 +2827,7 @@
         <v>196</v>
       </c>
       <c r="B132" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="C132" t="s">
         <v>58</v>
@@ -2779,7 +2838,7 @@
         <v>196</v>
       </c>
       <c r="B133" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="C133" t="s">
         <v>59</v>
@@ -2790,10 +2849,10 @@
         <v>196</v>
       </c>
       <c r="B134" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="C134" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.35">
@@ -2801,10 +2860,131 @@
         <v>196</v>
       </c>
       <c r="B135" t="s">
+        <v>305</v>
+      </c>
+      <c r="C135" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>308</v>
+      </c>
+      <c r="B136" t="s">
+        <v>309</v>
+      </c>
+      <c r="C136" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>308</v>
+      </c>
+      <c r="B137" t="s">
+        <v>239</v>
+      </c>
+      <c r="C137" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>308</v>
+      </c>
+      <c r="B138" t="s">
+        <v>311</v>
+      </c>
+      <c r="C138" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>308</v>
+      </c>
+      <c r="B139" t="s">
+        <v>313</v>
+      </c>
+      <c r="C139" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>308</v>
+      </c>
+      <c r="B140" t="s">
         <v>314</v>
       </c>
-      <c r="C135" t="s">
-        <v>313</v>
+      <c r="C140" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>308</v>
+      </c>
+      <c r="B141" t="s">
+        <v>315</v>
+      </c>
+      <c r="C141" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>308</v>
+      </c>
+      <c r="B142" t="s">
+        <v>316</v>
+      </c>
+      <c r="C142" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>308</v>
+      </c>
+      <c r="B143" t="s">
+        <v>263</v>
+      </c>
+      <c r="C143" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>308</v>
+      </c>
+      <c r="B144" t="s">
+        <v>321</v>
+      </c>
+      <c r="C144" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>308</v>
+      </c>
+      <c r="B145" t="s">
+        <v>323</v>
+      </c>
+      <c r="C145" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>308</v>
+      </c>
+      <c r="B146" t="s">
+        <v>326</v>
+      </c>
+      <c r="C146" t="s">
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -3023,7 +3203,7 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="E14" sqref="E14:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3042,7 +3222,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>267</v>
+        <v>334</v>
       </c>
       <c r="B2" t="s">
         <v>199</v>
@@ -3058,23 +3238,23 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>244</v>
+        <v>327</v>
       </c>
       <c r="B4" t="s">
-        <v>261</v>
+        <v>335</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B5" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B6">
         <v>28092000</v>
@@ -3090,23 +3270,23 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>265</v>
+        <v>332</v>
       </c>
       <c r="B8" t="s">
-        <v>263</v>
+        <v>330</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>266</v>
+        <v>333</v>
       </c>
       <c r="B9" t="s">
-        <v>264</v>
+        <v>331</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>166</v>
@@ -3114,12 +3294,12 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>248</v>
+        <v>328</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>249</v>
+        <v>329</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -3127,15 +3307,15 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B13" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B14" t="s">
         <v>229</v>
@@ -3143,7 +3323,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="B15" t="s">
         <v>227</v>
@@ -3151,7 +3331,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B16">
         <v>1139519168</v>
@@ -3167,7 +3347,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B18" t="s">
         <v>168</v>
@@ -3175,7 +3355,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B19" t="s">
         <v>169</v>
@@ -3183,7 +3363,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
@@ -3196,7 +3376,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B22" t="s">
         <v>173</v>
@@ -3204,7 +3384,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>175</v>
@@ -3222,6 +3402,162 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B4">
+        <v>28092000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>246</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>247</v>
+      </c>
+      <c r="B7" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>248</v>
+      </c>
+      <c r="B8" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>272</v>
+      </c>
+      <c r="B9" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>249</v>
+      </c>
+      <c r="B10">
+        <v>1139519168</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>157</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>250</v>
+      </c>
+      <c r="B12" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>251</v>
+      </c>
+      <c r="B13" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>161</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>253</v>
+      </c>
+      <c r="B16" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>254</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B11" r:id="rId1"/>
+    <hyperlink ref="B6" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3240,7 +3576,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B2">
         <v>1111</v>
@@ -3248,7 +3584,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B3">
         <v>1111</v>
